--- a/STUDIO/org.openl.rules.project/test/resources/multi-module-support/test1/project3/Module3_1.xlsx
+++ b/STUDIO/org.openl.rules.project/test/resources/multi-module-support/test1/project3/Module3_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="19035" windowHeight="10995"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -179,16 +179,31 @@
   </si>
   <si>
     <t>Module2_1</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>lob</t>
+  </si>
+  <si>
+    <t>lob3</t>
+  </si>
+  <si>
+    <t>Properties moduleProperties</t>
+  </si>
+  <si>
+    <t>Module</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,10 +724,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,54 +793,54 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,11 +848,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Vehicle-Eligibility"/>
@@ -965,6 +985,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -999,6 +1020,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1174,14 +1196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1190,7 +1212,7 @@
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>34</v>
       </c>
@@ -1199,7 +1221,7 @@
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1233,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1272,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1284,7 +1306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1323,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -1318,7 +1340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1335,7 +1357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
@@ -1346,7 +1368,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
@@ -1374,13 +1396,13 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="31"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
         <v>36</v>
       </c>
@@ -1388,7 +1410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>51</v>
       </c>
@@ -1396,7 +1418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>38</v>
       </c>
@@ -1405,7 +1427,7 @@
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="s">
         <v>39</v>
       </c>
@@ -1418,7 +1440,7 @@
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
@@ -1429,60 +1451,81 @@
       <c r="E25" s="38"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="40" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41" t="s">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="43" t="s">
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="47" t="s">
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="51" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53">
+      <c r="C29" s="41"/>
+      <c r="D29" s="42">
         <v>400</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="55" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57">
+      <c r="C30" s="45"/>
+      <c r="D30" s="46">
         <v>20</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
